--- a/outputs/SORs/SOR Testing_AMC Conveyance Solutions Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Conveyance Solutions Division.xlsx
@@ -47,15 +47,16 @@
     <sheet name="Shanghai Pmc China" sheetId="39" state="visible" r:id="rId39"/>
     <sheet name="Zhangzhou China" sheetId="40" state="visible" r:id="rId40"/>
     <sheet name="Shanghai China" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="Brownsville PMC Texas" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="Stuarts Draft Virginia" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="Apodaca Pmc Plant 1 Mexico" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="Faridabad India" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="Brownsville PMC Texas" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="Stuarts Draft Virginia" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="Apodaca Pmc Plant 1 Mexico" sheetId="45" state="visible" r:id="rId45"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -273,6 +274,9 @@
     <t xml:space="preserve">Shanghai China</t>
   </si>
   <si>
+    <t xml:space="preserve">Faridabad India</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brownsville PMC Texas</t>
   </si>
   <si>
@@ -286,7 +290,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="44">
+  <numFmts count="45">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -331,6 +335,7 @@
     <numFmt numFmtId="206" formatCode="0.0%"/>
     <numFmt numFmtId="207" formatCode="0.0%"/>
     <numFmt numFmtId="208" formatCode="0.0%"/>
+    <numFmt numFmtId="209" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -366,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -412,6 +417,7 @@
     <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="208" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="209" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,19 +944,19 @@
         <v>29</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.0141</v>
+        <v>0.0147</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>0.0133</v>
+        <v>0.0145</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.0133</v>
+        <v>0.0147</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.0407</v>
+        <v>0.0439</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.0135</v>
+        <v>0.0149</v>
       </c>
       <c r="L4" s="1" t="n">
         <v>0</v>
@@ -1157,9 +1163,7 @@
       <c r="K7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="1" t="n">
-        <v>0.333333333333333</v>
-      </c>
+      <c r="L7" s="1"/>
       <c r="M7" s="1" t="n">
         <v>0.333333333333333</v>
       </c>
@@ -1208,7 +1212,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1279,7 +1283,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1350,28 +1354,28 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0.026</v>
+        <v>0.0235</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>0.0588</v>
+        <v>0.0584</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>0.0573</v>
+        <v>0.0547</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>0.1436</v>
+        <v>0.1381</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>0.0632</v>
+        <v>0.0624</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>0</v>
+        <v>0.0532</v>
       </c>
       <c r="M10" s="1" t="n">
         <v>0</v>
@@ -1669,40 +1673,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1829,7 +1833,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1900,7 +1904,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1971,7 +1975,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1992,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="10" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="M9" s="10" t="n">
         <v>0</v>
@@ -2588,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="12" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="M4" s="12" t="n">
         <v>0</v>
@@ -2638,7 +2642,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="12" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -2689,7 +2693,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="12" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -2760,7 +2764,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="12" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -2777,40 +2781,40 @@
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7" s="12" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="N7" s="12" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="O7" s="12" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="P7" s="12" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Q7" s="12" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="R7" s="12" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="S7" s="12" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="T7" s="12" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="U7" s="12" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="V7" s="12" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="W7" s="12" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -3462,7 +3466,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -3513,7 +3517,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -3584,7 +3588,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -3601,40 +3605,40 @@
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="N7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="O7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="P7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="R7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="S7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="T7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="U7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="V7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -3651,7 +3655,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3722,7 +3726,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3793,7 +3797,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -3814,7 +3818,7 @@
         <v>0.0588</v>
       </c>
       <c r="L10" s="14" t="n">
-        <v>0</v>
+        <v>0.0208</v>
       </c>
       <c r="M10" s="14" t="n">
         <v>0</v>
@@ -4395,22 +4399,22 @@
         <v>29</v>
       </c>
       <c r="G4" s="16" t="n">
-        <v>0.0122</v>
+        <v>0.0123</v>
       </c>
       <c r="H4" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="16" t="n">
-        <v>0.0633</v>
+        <v>0.0641</v>
       </c>
       <c r="J4" s="16" t="n">
-        <v>0.0738</v>
+        <v>0.0747</v>
       </c>
       <c r="K4" s="16" t="n">
-        <v>0.0128</v>
+        <v>0.013</v>
       </c>
       <c r="L4" s="16" t="n">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
       <c r="M4" s="16" t="n">
         <v>0</v>
@@ -4600,9 +4604,7 @@
       <c r="K7" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="16" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="16"/>
       <c r="M7" s="16" t="n">
         <v>1</v>
       </c>
@@ -4651,7 +4653,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -4722,7 +4724,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4793,7 +4795,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="16" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4814,7 +4816,7 @@
         <v>0.0233</v>
       </c>
       <c r="L10" s="16" t="n">
-        <v>0</v>
+        <v>0.0227</v>
       </c>
       <c r="M10" s="16" t="n">
         <v>0</v>
@@ -5111,9 +5113,7 @@
       <c r="K4" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="L4" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="L4" s="17"/>
       <c r="M4" s="17" t="n">
         <v>0</v>
       </c>
@@ -6196,32 +6196,52 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="20"/>
+        <v>26</v>
+      </c>
+      <c r="E4" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
-      <c r="K4" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="N4" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
+      <c r="O4" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="W4" s="20" t="n">
         <v>0</v>
       </c>
@@ -6241,57 +6261,98 @@
       </c>
       <c r="E5" s="20"/>
       <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M5" s="20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N5" s="20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O5" s="20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P5" s="20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q5" s="20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R5" s="20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S5" s="20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T5" s="20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U5" s="20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V5" s="20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W5" s="20" t="n">
+      <c r="G6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="20" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -7969,9 +8030,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="L4" s="3"/>
       <c r="M4" s="3" t="n">
         <v>0</v>
       </c>
@@ -8020,7 +8079,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -8091,7 +8150,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -8162,7 +8221,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -8181,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M7" s="3" t="n">
         <v>0.0833333333333333</v>
@@ -8867,9 +8926,7 @@
       <c r="K3" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="L3" s="33"/>
       <c r="M3" s="33" t="n">
         <v>1</v>
       </c>
@@ -10152,7 +10209,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -10201,7 +10258,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -10272,7 +10329,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -10289,40 +10346,40 @@
         <v>1</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -10339,7 +10396,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -10410,7 +10467,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -10481,28 +10538,28 @@
         <v>31</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.0233</v>
+        <v>0.0235</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>0.0116</v>
+        <v>0.0118</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>0.0349</v>
+        <v>0.0353</v>
       </c>
       <c r="K10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>0</v>
+        <v>0.0357</v>
       </c>
       <c r="M10" s="4" t="n">
         <v>0</v>
@@ -10990,9 +11047,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="41"/>
-      <c r="L5" s="41" t="n">
-        <v>0</v>
-      </c>
+      <c r="L5" s="41"/>
       <c r="M5" s="41" t="n">
         <v>0</v>
       </c>
@@ -11123,29 +11178,19 @@
         <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E2" s="42" t="n">
-        <v>0.0639</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="42" t="n">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
       <c r="L2" s="42" t="n">
         <v>0</v>
       </c>
@@ -11170,8 +11215,12 @@
       <c r="S2" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
+      <c r="T2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="42" t="n">
+        <v>0</v>
+      </c>
       <c r="V2" s="42" t="n">
         <v>0</v>
       </c>
@@ -11190,29 +11239,19 @@
         <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="42" t="n">
-        <v>0.0639</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="42" t="n">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
       <c r="L3" s="42" t="n">
         <v>0</v>
       </c>
@@ -11237,8 +11276,12 @@
       <c r="S3" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
+      <c r="T3" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="42" t="n">
+        <v>0</v>
+      </c>
       <c r="V3" s="42" t="n">
         <v>0</v>
       </c>
@@ -11345,12 +11388,14 @@
         <v>31</v>
       </c>
       <c r="E2" s="43" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="43"/>
+      <c r="G2" s="43" t="n">
+        <v>0</v>
+      </c>
       <c r="H2" s="43" t="n">
         <v>0</v>
       </c>
@@ -11363,19 +11408,35 @@
       <c r="K2" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="L2" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="43" t="n">
+        <v>0</v>
+      </c>
       <c r="N2" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
+      <c r="O2" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="43" t="n">
+        <v>0</v>
+      </c>
       <c r="T2" s="43"/>
       <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
+      <c r="V2" s="43" t="n">
+        <v>0</v>
+      </c>
       <c r="W2" s="43" t="n">
         <v>0</v>
       </c>
@@ -11394,12 +11455,14 @@
         <v>31</v>
       </c>
       <c r="E3" s="43" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="43"/>
+      <c r="G3" s="43" t="n">
+        <v>0</v>
+      </c>
       <c r="H3" s="43" t="n">
         <v>0</v>
       </c>
@@ -11412,89 +11475,36 @@
       <c r="K3" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
+      <c r="L3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="43" t="n">
+        <v>0</v>
+      </c>
       <c r="N3" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
+      <c r="O3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="43" t="n">
+        <v>0</v>
+      </c>
       <c r="T3" s="43"/>
       <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
+      <c r="V3" s="43" t="n">
+        <v>0</v>
+      </c>
       <c r="W3" s="43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="43" t="n">
-        <v>0.0639</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11597,37 +11607,39 @@
         <v>31</v>
       </c>
       <c r="E2" s="44" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44" t="n">
-        <v>1</v>
-      </c>
+      <c r="H2" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="44"/>
       <c r="M2" s="44"/>
       <c r="N2" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O2" s="44"/>
       <c r="P2" s="44"/>
       <c r="Q2" s="44"/>
-      <c r="R2" s="44" t="n">
-        <v>0</v>
-      </c>
+      <c r="R2" s="44"/>
       <c r="S2" s="44"/>
       <c r="T2" s="44"/>
       <c r="U2" s="44"/>
       <c r="V2" s="44"/>
       <c r="W2" s="44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -11644,36 +11656,286 @@
         <v>31</v>
       </c>
       <c r="E3" s="44" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44" t="n">
-        <v>0.9</v>
-      </c>
+      <c r="H3" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="44"/>
       <c r="M3" s="44"/>
       <c r="N3" s="44" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="O3" s="44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O3" s="44"/>
       <c r="P3" s="44"/>
       <c r="Q3" s="44"/>
-      <c r="R3" s="44" t="n">
-        <v>0</v>
-      </c>
+      <c r="R3" s="44"/>
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
       <c r="U3" s="44"/>
       <c r="V3" s="44"/>
       <c r="W3" s="44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="44" t="n">
+        <v>0.0776</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="45" t="n">
+        <v>0.0776</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="45" t="n">
+        <v>0.0776</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O3" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -12142,7 +12404,7 @@
         <v>0.0185</v>
       </c>
       <c r="L4" s="6" t="n">
-        <v>0</v>
+        <v>0.0192</v>
       </c>
       <c r="M4" s="6" t="n">
         <v>0</v>
@@ -12377,7 +12639,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -12448,7 +12710,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -12519,7 +12781,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -12540,40 +12802,40 @@
         <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R10" s="6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S10" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T10" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12823,7 +13085,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>0.0286</v>
+        <v>0.0278</v>
       </c>
       <c r="H4" s="7" t="n">
         <v>0</v>
@@ -12832,46 +13094,46 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0292</v>
+        <v>0.0283</v>
       </c>
       <c r="K4" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -12888,7 +13150,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -12959,7 +13221,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -13030,7 +13292,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -13349,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v>0</v>
+        <v>0.0526</v>
       </c>
       <c r="M4" s="8" t="n">
         <v>0</v>
@@ -14000,7 +14262,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="9" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -14071,7 +14333,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="9" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -14142,7 +14404,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="9" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -14163,40 +14425,40 @@
         <v>0.0112</v>
       </c>
       <c r="L10" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M10" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="9" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O10" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R10" s="9" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S10" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T10" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U10" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V10" s="9" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W10" s="9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_AMC Conveyance Solutions Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Conveyance Solutions Division.xlsx
@@ -796,7 +796,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0</v>
+        <v>0.059</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -867,7 +867,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0</v>
+        <v>0.059</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -938,7 +938,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0</v>
+        <v>0.059</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -962,37 +962,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0</v>
+        <v>0.0118</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0</v>
+        <v>0.0354</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0</v>
+        <v>0.0118</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0</v>
+        <v>0.0118</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0</v>
+        <v>0.0118</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>0.0354</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>0.0118</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0</v>
+        <v>0.0118</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0</v>
+        <v>0.0118</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0</v>
+        <v>0.0354</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0</v>
+        <v>0.1416</v>
       </c>
     </row>
     <row r="5">
@@ -1212,7 +1212,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.2545</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1283,7 +1283,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.2545</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1354,7 +1354,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.2545</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1378,37 +1378,37 @@
         <v>0.0532</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>0</v>
+        <v>0.0509</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0</v>
+        <v>0.1527</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>0</v>
+        <v>0.0509</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>0</v>
+        <v>0.0509</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>0</v>
+        <v>0.0509</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>0.1527</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0</v>
+        <v>0.0509</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0</v>
+        <v>0.0509</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0</v>
+        <v>0.0509</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0</v>
+        <v>0.1527</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0</v>
+        <v>0.6108</v>
       </c>
     </row>
   </sheetData>
@@ -1510,7 +1510,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>0</v>
+        <v>0.0276</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1581,7 +1581,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>0</v>
+        <v>0.0276</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1652,7 +1652,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>0</v>
+        <v>0.0276</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1676,37 +1676,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="10" t="n">
-        <v>0</v>
+        <v>0.00551666666666667</v>
       </c>
       <c r="N4" s="10" t="n">
-        <v>0</v>
+        <v>0.01655</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>0</v>
+        <v>0.00551666666666667</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>0</v>
+        <v>0.00551666666666667</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0</v>
+        <v>0.00551666666666667</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0</v>
+        <v>0.01655</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0</v>
+        <v>0.00551666666666667</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0</v>
+        <v>0.00551666666666667</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0</v>
+        <v>0.00551666666666667</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0</v>
+        <v>0.01655</v>
       </c>
       <c r="W4" s="10" t="n">
-        <v>0</v>
+        <v>0.0662</v>
       </c>
     </row>
     <row r="5">
@@ -1833,7 +1833,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0.0776</v>
+        <v>0.0482</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1904,7 +1904,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0.0776</v>
+        <v>0.0482</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1975,7 +1975,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0.0776</v>
+        <v>0.0482</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1999,37 +1999,37 @@
         <v>0.008</v>
       </c>
       <c r="M9" s="10" t="n">
-        <v>0</v>
+        <v>0.00964166666666667</v>
       </c>
       <c r="N9" s="10" t="n">
-        <v>0</v>
+        <v>0.028925</v>
       </c>
       <c r="O9" s="10" t="n">
-        <v>0</v>
+        <v>0.00964166666666667</v>
       </c>
       <c r="P9" s="10" t="n">
-        <v>0</v>
+        <v>0.00964166666666667</v>
       </c>
       <c r="Q9" s="10" t="n">
-        <v>0</v>
+        <v>0.00964166666666667</v>
       </c>
       <c r="R9" s="10" t="n">
-        <v>0</v>
+        <v>0.028925</v>
       </c>
       <c r="S9" s="10" t="n">
-        <v>0</v>
+        <v>0.00964166666666667</v>
       </c>
       <c r="T9" s="10" t="n">
-        <v>0</v>
+        <v>0.00964166666666667</v>
       </c>
       <c r="U9" s="10" t="n">
-        <v>0</v>
+        <v>0.00964166666666667</v>
       </c>
       <c r="V9" s="10" t="n">
-        <v>0</v>
+        <v>0.028925</v>
       </c>
       <c r="W9" s="10" t="n">
-        <v>0</v>
+        <v>0.1157</v>
       </c>
     </row>
   </sheetData>
@@ -2429,7 +2429,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>0</v>
+        <v>0.0249</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2500,7 +2500,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0</v>
+        <v>0.0249</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2571,7 +2571,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0</v>
+        <v>0.0249</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2595,37 +2595,37 @@
         <v>0.025</v>
       </c>
       <c r="M4" s="12" t="n">
-        <v>0</v>
+        <v>0.00498333333333333</v>
       </c>
       <c r="N4" s="12" t="n">
-        <v>0</v>
+        <v>0.01495</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0</v>
+        <v>0.00498333333333333</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0</v>
+        <v>0.00498333333333333</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0</v>
+        <v>0.00498333333333333</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0</v>
+        <v>0.01495</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0</v>
+        <v>0.00498333333333333</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0</v>
+        <v>0.00498333333333333</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0</v>
+        <v>0.00498333333333333</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0</v>
+        <v>0.01495</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>0</v>
+        <v>0.0598</v>
       </c>
     </row>
     <row r="5">
@@ -2915,9 +2915,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="13"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2986,9 +2984,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="13"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3253,7 +3249,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0</v>
+        <v>0.0683</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3324,7 +3320,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0</v>
+        <v>0.0683</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3395,7 +3391,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0</v>
+        <v>0.0683</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3419,37 +3415,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="14" t="n">
-        <v>0</v>
+        <v>0.0136583333333333</v>
       </c>
       <c r="N4" s="14" t="n">
-        <v>0</v>
+        <v>0.040975</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0</v>
+        <v>0.0136583333333333</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0</v>
+        <v>0.0136583333333333</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0</v>
+        <v>0.0136583333333333</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0</v>
+        <v>0.040975</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0</v>
+        <v>0.0136583333333333</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0</v>
+        <v>0.0136583333333333</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0</v>
+        <v>0.0136583333333333</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0</v>
+        <v>0.040975</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0</v>
+        <v>0.1639</v>
       </c>
     </row>
     <row r="5">
@@ -3655,7 +3651,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.0776</v>
+        <v>0.08</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3726,7 +3722,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.0776</v>
+        <v>0.08</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3797,7 +3793,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="14" t="n">
-        <v>0.0776</v>
+        <v>0.08</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -3821,37 +3817,37 @@
         <v>0.0208</v>
       </c>
       <c r="M10" s="14" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="N10" s="14" t="n">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="O10" s="14" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="P10" s="14" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="Q10" s="14" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="R10" s="14" t="n">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="T10" s="14" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="U10" s="14" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="V10" s="14" t="n">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="W10" s="14" t="n">
-        <v>0</v>
+        <v>0.192</v>
       </c>
     </row>
   </sheetData>
@@ -3953,7 +3949,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0</v>
+        <v>0.0714</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4024,7 +4020,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0</v>
+        <v>0.0714</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4095,7 +4091,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0</v>
+        <v>0.0714</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4119,37 +4115,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0</v>
+        <v>0.0142833333333333</v>
       </c>
       <c r="N4" s="15" t="n">
-        <v>0</v>
+        <v>0.04285</v>
       </c>
       <c r="O4" s="15" t="n">
-        <v>0</v>
+        <v>0.0142833333333333</v>
       </c>
       <c r="P4" s="15" t="n">
-        <v>0</v>
+        <v>0.0142833333333333</v>
       </c>
       <c r="Q4" s="15" t="n">
-        <v>0</v>
+        <v>0.0142833333333333</v>
       </c>
       <c r="R4" s="15" t="n">
-        <v>0</v>
+        <v>0.04285</v>
       </c>
       <c r="S4" s="15" t="n">
-        <v>0</v>
+        <v>0.0142833333333333</v>
       </c>
       <c r="T4" s="15" t="n">
-        <v>0</v>
+        <v>0.0142833333333333</v>
       </c>
       <c r="U4" s="15" t="n">
-        <v>0</v>
+        <v>0.0142833333333333</v>
       </c>
       <c r="V4" s="15" t="n">
-        <v>0</v>
+        <v>0.04285</v>
       </c>
       <c r="W4" s="15" t="n">
-        <v>0</v>
+        <v>0.1714</v>
       </c>
     </row>
   </sheetData>
@@ -4251,7 +4247,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>0</v>
+        <v>0.1015</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4322,7 +4318,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="16" t="n">
-        <v>0</v>
+        <v>0.1015</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4393,7 +4389,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="16" t="n">
-        <v>0</v>
+        <v>0.1015</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4417,37 +4413,37 @@
         <v>0.0132</v>
       </c>
       <c r="M4" s="16" t="n">
-        <v>0</v>
+        <v>0.0203</v>
       </c>
       <c r="N4" s="16" t="n">
-        <v>0</v>
+        <v>0.0609</v>
       </c>
       <c r="O4" s="16" t="n">
-        <v>0</v>
+        <v>0.0203</v>
       </c>
       <c r="P4" s="16" t="n">
-        <v>0</v>
+        <v>0.0203</v>
       </c>
       <c r="Q4" s="16" t="n">
-        <v>0</v>
+        <v>0.0203</v>
       </c>
       <c r="R4" s="16" t="n">
-        <v>0</v>
+        <v>0.0609</v>
       </c>
       <c r="S4" s="16" t="n">
-        <v>0</v>
+        <v>0.0203</v>
       </c>
       <c r="T4" s="16" t="n">
-        <v>0</v>
+        <v>0.0203</v>
       </c>
       <c r="U4" s="16" t="n">
-        <v>0</v>
+        <v>0.0203</v>
       </c>
       <c r="V4" s="16" t="n">
-        <v>0</v>
+        <v>0.0609</v>
       </c>
       <c r="W4" s="16" t="n">
-        <v>0</v>
+        <v>0.2436</v>
       </c>
     </row>
     <row r="5">
@@ -4653,7 +4649,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>0.0776</v>
+        <v>0.0926</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -4724,7 +4720,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>0.0776</v>
+        <v>0.0926</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4795,7 +4791,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="16" t="n">
-        <v>0.0776</v>
+        <v>0.0926</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4819,37 +4815,37 @@
         <v>0.0227</v>
       </c>
       <c r="M10" s="16" t="n">
-        <v>0</v>
+        <v>0.0185166666666667</v>
       </c>
       <c r="N10" s="16" t="n">
-        <v>0</v>
+        <v>0.05555</v>
       </c>
       <c r="O10" s="16" t="n">
-        <v>0</v>
+        <v>0.0185166666666667</v>
       </c>
       <c r="P10" s="16" t="n">
-        <v>0</v>
+        <v>0.0185166666666667</v>
       </c>
       <c r="Q10" s="16" t="n">
-        <v>0</v>
+        <v>0.0185166666666667</v>
       </c>
       <c r="R10" s="16" t="n">
-        <v>0</v>
+        <v>0.05555</v>
       </c>
       <c r="S10" s="16" t="n">
-        <v>0</v>
+        <v>0.0185166666666667</v>
       </c>
       <c r="T10" s="16" t="n">
-        <v>0</v>
+        <v>0.0185166666666667</v>
       </c>
       <c r="U10" s="16" t="n">
-        <v>0</v>
+        <v>0.0185166666666667</v>
       </c>
       <c r="V10" s="16" t="n">
-        <v>0</v>
+        <v>0.05555</v>
       </c>
       <c r="W10" s="16" t="n">
-        <v>0</v>
+        <v>0.2222</v>
       </c>
     </row>
   </sheetData>
@@ -5356,9 +5352,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="18" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="18"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -5427,9 +5421,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="18" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="18"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -5881,9 +5873,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -5952,9 +5942,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -6454,9 +6442,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="21"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -6497,9 +6483,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="21"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -8079,7 +8063,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.0776</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -8150,7 +8134,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.0776</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -8221,7 +8205,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.0776</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -8243,37 +8227,37 @@
         <v>0</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="S7" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="W7" s="3" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>
@@ -10396,7 +10380,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.0776</v>
+        <v>0.0704</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -10467,7 +10451,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.0776</v>
+        <v>0.0704</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -10538,7 +10522,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0.0776</v>
+        <v>0.0704</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -10562,37 +10546,37 @@
         <v>0.0357</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>0</v>
+        <v>0.0140833333333333</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0</v>
+        <v>0.04225</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>0</v>
+        <v>0.0140833333333333</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>0</v>
+        <v>0.0140833333333333</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0</v>
+        <v>0.0140833333333333</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0</v>
+        <v>0.04225</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0</v>
+        <v>0.0140833333333333</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>0</v>
+        <v>0.0140833333333333</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>0</v>
+        <v>0.0140833333333333</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>0</v>
+        <v>0.04225</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>0</v>
+        <v>0.169</v>
       </c>
     </row>
   </sheetData>
@@ -11387,9 +11371,7 @@
       <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="43" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="43"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -11454,9 +11436,7 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="43" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="43"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -11607,7 +11587,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="44" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11656,7 +11636,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="44" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11705,7 +11685,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="44" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11858,9 +11838,7 @@
       <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="45" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="45"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -11905,9 +11883,7 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="45" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="45"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -12037,9 +12013,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="5"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -12096,9 +12070,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -12241,7 +12213,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0</v>
+        <v>0.0562</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -12312,7 +12284,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0</v>
+        <v>0.0562</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -12383,7 +12355,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0</v>
+        <v>0.0562</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -12407,37 +12379,37 @@
         <v>0.0192</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0</v>
+        <v>0.0112416666666667</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0</v>
+        <v>0.033725</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0</v>
+        <v>0.0112416666666667</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0</v>
+        <v>0.0112416666666667</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0</v>
+        <v>0.0112416666666667</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0</v>
+        <v>0.033725</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0</v>
+        <v>0.0112416666666667</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0</v>
+        <v>0.0112416666666667</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0</v>
+        <v>0.0112416666666667</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0</v>
+        <v>0.033725</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0</v>
+        <v>0.1349</v>
       </c>
     </row>
     <row r="5">
@@ -12639,7 +12611,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0776</v>
+        <v>0.0122</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -12710,7 +12682,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0776</v>
+        <v>0.0122</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -12781,7 +12753,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.0776</v>
+        <v>0.0122</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -12805,37 +12777,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>0</v>
+        <v>0.00244166666666667</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0</v>
+        <v>0.007325</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0</v>
+        <v>0.00244166666666667</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0</v>
+        <v>0.00244166666666667</v>
       </c>
       <c r="Q10" s="6" t="n">
-        <v>0</v>
+        <v>0.00244166666666667</v>
       </c>
       <c r="R10" s="6" t="n">
-        <v>0</v>
+        <v>0.007325</v>
       </c>
       <c r="S10" s="6" t="n">
-        <v>0</v>
+        <v>0.00244166666666667</v>
       </c>
       <c r="T10" s="6" t="n">
-        <v>0</v>
+        <v>0.00244166666666667</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0</v>
+        <v>0.00244166666666667</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0</v>
+        <v>0.007325</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0</v>
+        <v>0.0293</v>
       </c>
     </row>
   </sheetData>
@@ -12937,7 +12909,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0</v>
+        <v>0.0284</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13008,7 +12980,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0</v>
+        <v>0.0284</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13079,7 +13051,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0</v>
+        <v>0.0284</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -13103,37 +13075,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0</v>
+        <v>0.00568333333333333</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0</v>
+        <v>0.01705</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0</v>
+        <v>0.00568333333333333</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0</v>
+        <v>0.00568333333333333</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0</v>
+        <v>0.00568333333333333</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0</v>
+        <v>0.01705</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0</v>
+        <v>0.00568333333333333</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0</v>
+        <v>0.00568333333333333</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0</v>
+        <v>0.00568333333333333</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0</v>
+        <v>0.01705</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0</v>
+        <v>0.0682</v>
       </c>
     </row>
     <row r="5">
@@ -13150,7 +13122,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -13221,7 +13193,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -13292,7 +13264,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -13448,7 +13420,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0</v>
+        <v>0.098</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13519,7 +13491,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0</v>
+        <v>0.098</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13590,7 +13562,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0</v>
+        <v>0.098</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -13614,37 +13586,37 @@
         <v>0.0526</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0</v>
+        <v>0.2352</v>
       </c>
     </row>
     <row r="5">
@@ -13856,7 +13828,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13927,7 +13899,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13998,7 +13970,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -14022,37 +13994,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>0</v>
+        <v>0.0084</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0</v>
+        <v>0.0252</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0</v>
+        <v>0.0084</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0</v>
+        <v>0.0084</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0</v>
+        <v>0.0084</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0</v>
+        <v>0.0252</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0</v>
+        <v>0.0084</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0</v>
+        <v>0.0084</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0</v>
+        <v>0.0084</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0</v>
+        <v>0.0252</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>0</v>
+        <v>0.1008</v>
       </c>
     </row>
     <row r="5">
@@ -14262,7 +14234,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="9" t="n">
-        <v>0.0776</v>
+        <v>0.0333</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -14333,7 +14305,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="9" t="n">
-        <v>0.0776</v>
+        <v>0.0333</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -14404,7 +14376,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="9" t="n">
-        <v>0.0776</v>
+        <v>0.0333</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -14428,37 +14400,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="9" t="n">
-        <v>0</v>
+        <v>0.00665833333333333</v>
       </c>
       <c r="N10" s="9" t="n">
-        <v>0</v>
+        <v>0.019975</v>
       </c>
       <c r="O10" s="9" t="n">
-        <v>0</v>
+        <v>0.00665833333333333</v>
       </c>
       <c r="P10" s="9" t="n">
-        <v>0</v>
+        <v>0.00665833333333333</v>
       </c>
       <c r="Q10" s="9" t="n">
-        <v>0</v>
+        <v>0.00665833333333333</v>
       </c>
       <c r="R10" s="9" t="n">
-        <v>0</v>
+        <v>0.019975</v>
       </c>
       <c r="S10" s="9" t="n">
-        <v>0</v>
+        <v>0.00665833333333333</v>
       </c>
       <c r="T10" s="9" t="n">
-        <v>0</v>
+        <v>0.00665833333333333</v>
       </c>
       <c r="U10" s="9" t="n">
-        <v>0</v>
+        <v>0.00665833333333333</v>
       </c>
       <c r="V10" s="9" t="n">
-        <v>0</v>
+        <v>0.019975</v>
       </c>
       <c r="W10" s="9" t="n">
-        <v>0</v>
+        <v>0.0799</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_AMC Conveyance Solutions Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Conveyance Solutions Division.xlsx
@@ -33,21 +33,21 @@
     <sheet name="Changzhou Pmc China" sheetId="25" state="visible" r:id="rId25"/>
     <sheet name="Cotia São Paulo Brazil" sheetId="26" state="visible" r:id="rId26"/>
     <sheet name="Cuautitlan  Mexico" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Field Pmc Egypt" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Field Pmc Slovenia" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="Field Pmc South Africa" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="Field Pmc Spain" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="Guadalajara Mexico" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="La Guerche l'Aubois France" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="Leamington United Kingdom" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="Mexico City Mexico" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="Mississauga Canada" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="Pharr Texas" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="Pontcarre France" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="Shanghai Pmc China" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="Zhangzhou China" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="Shanghai China" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="Faridabad India" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="Faridabad India" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Field Pmc Egypt" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Field Pmc Slovenia" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Field Pmc South Africa" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="Field Pmc Spain" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="Guadalajara Mexico" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="La Guerche l'Aubois France" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="Leamington United Kingdom" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="Mexico City Mexico" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="Mississauga Canada" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="Pharr Texas" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="Pontcarre France" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="Shanghai Pmc China" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="Zhangzhou China" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="Shanghai China" sheetId="42" state="visible" r:id="rId42"/>
     <sheet name="Brownsville PMC Texas" sheetId="43" state="visible" r:id="rId43"/>
     <sheet name="Stuarts Draft Virginia" sheetId="44" state="visible" r:id="rId44"/>
     <sheet name="Apodaca Pmc Plant 1 Mexico" sheetId="45" state="visible" r:id="rId45"/>
@@ -232,6 +232,9 @@
     <t xml:space="preserve">Cuautitlan  Mexico</t>
   </si>
   <si>
+    <t xml:space="preserve">Faridabad India</t>
+  </si>
+  <si>
     <t xml:space="preserve">Field Pmc Egypt</t>
   </si>
   <si>
@@ -272,9 +275,6 @@
   </si>
   <si>
     <t xml:space="preserve">Shanghai China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faridabad India</t>
   </si>
   <si>
     <t xml:space="preserve">Brownsville PMC Texas</t>
@@ -796,7 +796,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.059</v>
+        <v>0.0876</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -867,7 +867,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.059</v>
+        <v>0.0876</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -938,61 +938,61 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.059</v>
+        <v>0.0876</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="1" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0.0143</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0.0433</v>
+      </c>
+      <c r="K4" s="1" t="n">
         <v>0.0147</v>
       </c>
-      <c r="H4" s="1" t="n">
-        <v>0.0145</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>0.0147</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>0.0439</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>0.0149</v>
-      </c>
       <c r="L4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0.0118</v>
+        <v>0.0299</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0.0354</v>
+        <v>0.0443</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.0118</v>
+        <v>0.0146</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.0118</v>
+        <v>0.0146</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.0118</v>
+        <v>0.0146</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.0354</v>
+        <v>0.0438</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.0118</v>
+        <v>0.0146</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.0118</v>
+        <v>0.0146</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.0118</v>
+        <v>0.0146</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.0354</v>
+        <v>0.0438</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0.1416</v>
+        <v>0.1752</v>
       </c>
     </row>
     <row r="5">
@@ -1009,7 +1009,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.333333333333333</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1074,7 +1074,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.333333333333333</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1145,7 +1145,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.333333333333333</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1165,37 +1165,37 @@
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="n">
-        <v>0.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>0.333333333333333</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>0.333333333333333</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>0.333333333333333</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0.333333333333333</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0.333333333333333</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>0.333333333333333</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>0.333333333333333</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>0.333333333333333</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>0.333333333333333</v>
+        <v>0.428571428571429</v>
       </c>
     </row>
     <row r="8">
@@ -1212,7 +1212,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.2545</v>
+        <v>0.2781</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1283,7 +1283,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.2545</v>
+        <v>0.2781</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1354,61 +1354,61 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.2545</v>
+        <v>0.2781</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0.0235</v>
+        <v>0.0212</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0.0584</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>0.0547</v>
+        <v>0.0545</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>0.1381</v>
+        <v>0.1358</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>0.0624</v>
+        <v>0.0622</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>0.0532</v>
+        <v>0.0531</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>0.0509</v>
+        <v>0.0252</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0.1527</v>
+        <v>0.1423</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>0.0509</v>
+        <v>0.04635</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>0.0509</v>
+        <v>0.04635</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>0.0509</v>
+        <v>0.04635</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0.1527</v>
+        <v>0.13905</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0.0509</v>
+        <v>0.04635</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0.0509</v>
+        <v>0.04635</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.0509</v>
+        <v>0.04635</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.1527</v>
+        <v>0.13905</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0.6108</v>
+        <v>0.5562</v>
       </c>
     </row>
   </sheetData>
@@ -1676,37 +1676,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="10" t="n">
-        <v>0.00551666666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="10" t="n">
-        <v>0.01655</v>
+        <v>0</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>0.00551666666666667</v>
+        <v>0.0046</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>0.00551666666666667</v>
+        <v>0.0046</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0.00551666666666667</v>
+        <v>0.0046</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0.01655</v>
+        <v>0.0138</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0.00551666666666667</v>
+        <v>0.0046</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0.00551666666666667</v>
+        <v>0.0046</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0.00551666666666667</v>
+        <v>0.0046</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0.01655</v>
+        <v>0.0138</v>
       </c>
       <c r="W4" s="10" t="n">
-        <v>0.0662</v>
+        <v>0.0552</v>
       </c>
     </row>
     <row r="5">
@@ -1833,7 +1833,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0.0482</v>
+        <v>0.0557</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1904,7 +1904,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0.0482</v>
+        <v>0.0557</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1975,7 +1975,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0.0482</v>
+        <v>0.0557</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1999,37 +1999,37 @@
         <v>0.008</v>
       </c>
       <c r="M9" s="10" t="n">
-        <v>0.00964166666666667</v>
+        <v>0.0076</v>
       </c>
       <c r="N9" s="10" t="n">
-        <v>0.028925</v>
+        <v>0.0156</v>
       </c>
       <c r="O9" s="10" t="n">
-        <v>0.00964166666666667</v>
+        <v>0.00928333333333333</v>
       </c>
       <c r="P9" s="10" t="n">
-        <v>0.00964166666666667</v>
+        <v>0.00928333333333333</v>
       </c>
       <c r="Q9" s="10" t="n">
-        <v>0.00964166666666667</v>
+        <v>0.00928333333333333</v>
       </c>
       <c r="R9" s="10" t="n">
-        <v>0.028925</v>
+        <v>0.02785</v>
       </c>
       <c r="S9" s="10" t="n">
-        <v>0.00964166666666667</v>
+        <v>0.00928333333333333</v>
       </c>
       <c r="T9" s="10" t="n">
-        <v>0.00964166666666667</v>
+        <v>0.00928333333333333</v>
       </c>
       <c r="U9" s="10" t="n">
-        <v>0.00964166666666667</v>
+        <v>0.00928333333333333</v>
       </c>
       <c r="V9" s="10" t="n">
-        <v>0.028925</v>
+        <v>0.02785</v>
       </c>
       <c r="W9" s="10" t="n">
-        <v>0.1157</v>
+        <v>0.1114</v>
       </c>
     </row>
   </sheetData>
@@ -2130,9 +2130,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="11"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2201,9 +2199,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2256,77 +2252,6 @@
         <v>0</v>
       </c>
       <c r="W3" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2429,7 +2354,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>0.0249</v>
+        <v>0.0465</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2500,7 +2425,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0.0249</v>
+        <v>0.0465</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2571,7 +2496,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0.0249</v>
+        <v>0.0465</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2592,40 +2517,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="12" t="n">
-        <v>0.025</v>
+        <v>0.0233</v>
       </c>
       <c r="M4" s="12" t="n">
-        <v>0.00498333333333333</v>
+        <v>0.0238</v>
       </c>
       <c r="N4" s="12" t="n">
-        <v>0.01495</v>
+        <v>0.0468</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0.00498333333333333</v>
+        <v>0.00775</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0.00498333333333333</v>
+        <v>0.00775</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0.00498333333333333</v>
+        <v>0.00775</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0.01495</v>
+        <v>0.02325</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0.00498333333333333</v>
+        <v>0.00775</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0.00498333333333333</v>
+        <v>0.00775</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0.00498333333333333</v>
+        <v>0.00775</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0.01495</v>
+        <v>0.02325</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>0.0598</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="5">
@@ -2783,11 +2708,9 @@
       <c r="L7" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="12" t="n">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="M7" s="12"/>
       <c r="N7" s="12" t="n">
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="O7" s="12" t="n">
         <v>0.666666666666667</v>
@@ -3249,7 +3172,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0.0683</v>
+        <v>0.0855</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3320,7 +3243,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0.0683</v>
+        <v>0.0855</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3391,7 +3314,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0.0683</v>
+        <v>0.0855</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3415,37 +3338,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="14" t="n">
-        <v>0.0136583333333333</v>
+        <v>0.0172</v>
       </c>
       <c r="N4" s="14" t="n">
-        <v>0.040975</v>
+        <v>0.052</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0.0136583333333333</v>
+        <v>0.01425</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0.0136583333333333</v>
+        <v>0.01425</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0.0136583333333333</v>
+        <v>0.01425</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0.040975</v>
+        <v>0.04275</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0.0136583333333333</v>
+        <v>0.01425</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0.0136583333333333</v>
+        <v>0.01425</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0.0136583333333333</v>
+        <v>0.01425</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0.040975</v>
+        <v>0.04275</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0.1639</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="5">
@@ -3462,7 +3385,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="14" t="n">
-        <v>0.333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -3513,7 +3436,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="14" t="n">
-        <v>0.333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -3584,7 +3507,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="14" t="n">
-        <v>0.333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -3604,37 +3527,37 @@
         <v>0</v>
       </c>
       <c r="M7" s="14" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="N7" s="14" t="n">
-        <v>0.333333333333333</v>
+        <v>0.3333</v>
       </c>
       <c r="O7" s="14" t="n">
-        <v>0.333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="P7" s="14" t="n">
-        <v>0.333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="Q7" s="14" t="n">
-        <v>0.333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="R7" s="14" t="n">
-        <v>0.333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="S7" s="14" t="n">
-        <v>0.333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="T7" s="14" t="n">
-        <v>0.333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="U7" s="14" t="n">
-        <v>0.333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="V7" s="14" t="n">
-        <v>0.333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="W7" s="14" t="n">
-        <v>0.333333333333333</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
@@ -3651,7 +3574,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.08</v>
+        <v>0.0781</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3722,7 +3645,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.08</v>
+        <v>0.0781</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3793,7 +3716,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="14" t="n">
-        <v>0.08</v>
+        <v>0.0781</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -3811,43 +3734,43 @@
         <v>0</v>
       </c>
       <c r="K10" s="14" t="n">
-        <v>0.0588</v>
+        <v>0.0577</v>
       </c>
       <c r="L10" s="14" t="n">
-        <v>0.0208</v>
+        <v>0.0204</v>
       </c>
       <c r="M10" s="14" t="n">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="N10" s="14" t="n">
-        <v>0.048</v>
+        <v>0.0784</v>
       </c>
       <c r="O10" s="14" t="n">
-        <v>0.016</v>
+        <v>0.0130166666666667</v>
       </c>
       <c r="P10" s="14" t="n">
-        <v>0.016</v>
+        <v>0.0130166666666667</v>
       </c>
       <c r="Q10" s="14" t="n">
-        <v>0.016</v>
+        <v>0.0130166666666667</v>
       </c>
       <c r="R10" s="14" t="n">
-        <v>0.048</v>
+        <v>0.03905</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>0.016</v>
+        <v>0.0130166666666667</v>
       </c>
       <c r="T10" s="14" t="n">
-        <v>0.016</v>
+        <v>0.0130166666666667</v>
       </c>
       <c r="U10" s="14" t="n">
-        <v>0.016</v>
+        <v>0.0130166666666667</v>
       </c>
       <c r="V10" s="14" t="n">
-        <v>0.048</v>
+        <v>0.03905</v>
       </c>
       <c r="W10" s="14" t="n">
-        <v>0.192</v>
+        <v>0.1562</v>
       </c>
     </row>
   </sheetData>
@@ -4115,37 +4038,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.0142833333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="15" t="n">
-        <v>0.04285</v>
+        <v>0.0714</v>
       </c>
       <c r="O4" s="15" t="n">
-        <v>0.0142833333333333</v>
+        <v>0.0119</v>
       </c>
       <c r="P4" s="15" t="n">
-        <v>0.0142833333333333</v>
+        <v>0.0119</v>
       </c>
       <c r="Q4" s="15" t="n">
-        <v>0.0142833333333333</v>
+        <v>0.0119</v>
       </c>
       <c r="R4" s="15" t="n">
-        <v>0.04285</v>
+        <v>0.0357</v>
       </c>
       <c r="S4" s="15" t="n">
-        <v>0.0142833333333333</v>
+        <v>0.0119</v>
       </c>
       <c r="T4" s="15" t="n">
-        <v>0.0142833333333333</v>
+        <v>0.0119</v>
       </c>
       <c r="U4" s="15" t="n">
-        <v>0.0142833333333333</v>
+        <v>0.0119</v>
       </c>
       <c r="V4" s="15" t="n">
-        <v>0.04285</v>
+        <v>0.0357</v>
       </c>
       <c r="W4" s="15" t="n">
-        <v>0.1714</v>
+        <v>0.1428</v>
       </c>
     </row>
   </sheetData>
@@ -4247,7 +4170,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>0.1015</v>
+        <v>0.1151</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4318,7 +4241,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="16" t="n">
-        <v>0.1015</v>
+        <v>0.1151</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4389,7 +4312,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="16" t="n">
-        <v>0.1015</v>
+        <v>0.1151</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4413,37 +4336,37 @@
         <v>0.0132</v>
       </c>
       <c r="M4" s="16" t="n">
-        <v>0.0203</v>
+        <v>0.0133</v>
       </c>
       <c r="N4" s="16" t="n">
-        <v>0.0609</v>
+        <v>0.0395</v>
       </c>
       <c r="O4" s="16" t="n">
-        <v>0.0203</v>
+        <v>0.0191833333333333</v>
       </c>
       <c r="P4" s="16" t="n">
-        <v>0.0203</v>
+        <v>0.0191833333333333</v>
       </c>
       <c r="Q4" s="16" t="n">
-        <v>0.0203</v>
+        <v>0.0191833333333333</v>
       </c>
       <c r="R4" s="16" t="n">
-        <v>0.0609</v>
+        <v>0.05755</v>
       </c>
       <c r="S4" s="16" t="n">
-        <v>0.0203</v>
+        <v>0.0191833333333333</v>
       </c>
       <c r="T4" s="16" t="n">
-        <v>0.0203</v>
+        <v>0.0191833333333333</v>
       </c>
       <c r="U4" s="16" t="n">
-        <v>0.0203</v>
+        <v>0.0191833333333333</v>
       </c>
       <c r="V4" s="16" t="n">
-        <v>0.0609</v>
+        <v>0.05755</v>
       </c>
       <c r="W4" s="16" t="n">
-        <v>0.2436</v>
+        <v>0.2302</v>
       </c>
     </row>
     <row r="5">
@@ -4601,9 +4524,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="16"/>
-      <c r="M7" s="16" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="16"/>
       <c r="N7" s="16" t="n">
         <v>1</v>
       </c>
@@ -4649,7 +4570,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>0.0926</v>
+        <v>0.0946</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -4720,7 +4641,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>0.0926</v>
+        <v>0.0946</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4791,61 +4712,61 @@
         <v>31</v>
       </c>
       <c r="E10" s="16" t="n">
-        <v>0.0926</v>
+        <v>0.0946</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="16" t="n">
+        <v>0.0244</v>
+      </c>
+      <c r="H10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16" t="n">
         <v>0.0238</v>
       </c>
-      <c r="H10" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="16" t="n">
+      <c r="J10" s="16" t="n">
+        <v>0.0476</v>
+      </c>
+      <c r="K10" s="16" t="n">
+        <v>0.0238</v>
+      </c>
+      <c r="L10" s="16" t="n">
         <v>0.0233</v>
       </c>
-      <c r="J10" s="16" t="n">
-        <v>0.0465</v>
-      </c>
-      <c r="K10" s="16" t="n">
-        <v>0.0233</v>
-      </c>
-      <c r="L10" s="16" t="n">
-        <v>0.0227</v>
-      </c>
       <c r="M10" s="16" t="n">
-        <v>0.0185166666666667</v>
+        <v>0</v>
       </c>
       <c r="N10" s="16" t="n">
-        <v>0.05555</v>
+        <v>0.0468</v>
       </c>
       <c r="O10" s="16" t="n">
-        <v>0.0185166666666667</v>
+        <v>0.0157666666666667</v>
       </c>
       <c r="P10" s="16" t="n">
-        <v>0.0185166666666667</v>
+        <v>0.0157666666666667</v>
       </c>
       <c r="Q10" s="16" t="n">
-        <v>0.0185166666666667</v>
+        <v>0.0157666666666667</v>
       </c>
       <c r="R10" s="16" t="n">
-        <v>0.05555</v>
+        <v>0.0473</v>
       </c>
       <c r="S10" s="16" t="n">
-        <v>0.0185166666666667</v>
+        <v>0.0157666666666667</v>
       </c>
       <c r="T10" s="16" t="n">
-        <v>0.0185166666666667</v>
+        <v>0.0157666666666667</v>
       </c>
       <c r="U10" s="16" t="n">
-        <v>0.0185166666666667</v>
+        <v>0.0157666666666667</v>
       </c>
       <c r="V10" s="16" t="n">
-        <v>0.05555</v>
+        <v>0.0473</v>
       </c>
       <c r="W10" s="16" t="n">
-        <v>0.2222</v>
+        <v>0.1892</v>
       </c>
     </row>
   </sheetData>
@@ -5110,9 +5031,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="17"/>
-      <c r="M4" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="M4" s="17"/>
       <c r="N4" s="17" t="n">
         <v>0</v>
       </c>
@@ -7603,6 +7522,65 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -8015,12 +7993,8 @@
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
       <c r="O4" s="3" t="n">
         <v>0</v>
       </c>
@@ -8227,37 +8201,37 @@
         <v>0</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>0.2</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>0.2</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>0.2</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="S7" s="3" t="n">
-        <v>0.2</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>0.2</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>0.2</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="W7" s="3" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -8884,67 +8858,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" s="33" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -9101,6 +9014,65 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="34" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -9691,9 +9663,7 @@
       <c r="L2" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="38" t="n">
-        <v>0</v>
-      </c>
+      <c r="M2" s="38"/>
       <c r="N2" s="38" t="n">
         <v>0</v>
       </c>
@@ -10332,11 +10302,9 @@
       <c r="L7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="4" t="n">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="M7" s="4"/>
       <c r="N7" s="4" t="n">
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="O7" s="4" t="n">
         <v>0.666666666666667</v>
@@ -10380,7 +10348,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.0704</v>
+        <v>0.0706</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -10451,7 +10419,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.0704</v>
+        <v>0.0706</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -10522,7 +10490,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0.0704</v>
+        <v>0.0706</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -10546,37 +10514,37 @@
         <v>0.0357</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>0.0140833333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0.04225</v>
+        <v>0.0353</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>0.0140833333333333</v>
+        <v>0.0117666666666667</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>0.0140833333333333</v>
+        <v>0.0117666666666667</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0.0140833333333333</v>
+        <v>0.0117666666666667</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.04225</v>
+        <v>0.0353</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.0140833333333333</v>
+        <v>0.0117666666666667</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>0.0140833333333333</v>
+        <v>0.0117666666666667</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>0.0140833333333333</v>
+        <v>0.0117666666666667</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>0.04225</v>
+        <v>0.0353</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>0.169</v>
+        <v>0.1412</v>
       </c>
     </row>
   </sheetData>
@@ -10839,7 +10807,9 @@
       <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="41"/>
+      <c r="G2" s="41" t="n">
+        <v>0</v>
+      </c>
       <c r="H2" s="41" t="n">
         <v>0</v>
       </c>
@@ -10886,183 +10856,6 @@
         <v>0</v>
       </c>
       <c r="W2" s="41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I4" s="41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K4" s="41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M4" s="41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N4" s="41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O4" s="41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P4" s="41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q4" s="41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R4" s="41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S4" s="41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T4" s="41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U4" s="41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V4" s="41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W4" s="41" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11171,10 +10964,18 @@
         <v>29</v>
       </c>
       <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="H2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="42" t="n">
+        <v>0</v>
+      </c>
       <c r="L2" s="42" t="n">
         <v>0</v>
       </c>
@@ -11229,47 +11030,159 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G3" s="42"/>
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
-      <c r="L3" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="42" t="n">
-        <v>0</v>
-      </c>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
       <c r="O3" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="P3" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="42" t="n">
-        <v>0</v>
-      </c>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
       <c r="R3" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="42" t="n">
-        <v>0</v>
-      </c>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
       <c r="W3" s="42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M4" s="42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P4" s="42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R4" s="42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S4" s="42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T4" s="42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U4" s="42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V4" s="42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W4" s="42" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11586,9 +11499,7 @@
       <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="44" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="44"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -11635,9 +11546,7 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="44" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="44"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -11668,75 +11577,6 @@
       <c r="U3" s="44"/>
       <c r="V3" s="44"/>
       <c r="W3" s="44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12213,7 +12053,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.0562</v>
+        <v>0.0564</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -12284,7 +12124,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.0562</v>
+        <v>0.0564</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -12355,7 +12195,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.0562</v>
+        <v>0.0564</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -12379,37 +12219,37 @@
         <v>0.0192</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0.0112416666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.033725</v>
+        <v>0.038</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0112416666666667</v>
+        <v>0.0094</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0112416666666667</v>
+        <v>0.0094</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.0112416666666667</v>
+        <v>0.0094</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.033725</v>
+        <v>0.0282</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.0112416666666667</v>
+        <v>0.0094</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.0112416666666667</v>
+        <v>0.0094</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0112416666666667</v>
+        <v>0.0094</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.033725</v>
+        <v>0.0282</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1349</v>
+        <v>0.1128</v>
       </c>
     </row>
     <row r="5">
@@ -12563,9 +12403,7 @@
       <c r="L7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="6"/>
       <c r="N7" s="6" t="n">
         <v>1</v>
       </c>
@@ -12777,37 +12615,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>0.00244166666666667</v>
+        <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.007325</v>
+        <v>0</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00244166666666667</v>
+        <v>0.00203333333333333</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.00244166666666667</v>
+        <v>0.00203333333333333</v>
       </c>
       <c r="Q10" s="6" t="n">
-        <v>0.00244166666666667</v>
+        <v>0.00203333333333333</v>
       </c>
       <c r="R10" s="6" t="n">
-        <v>0.007325</v>
+        <v>0.0061</v>
       </c>
       <c r="S10" s="6" t="n">
-        <v>0.00244166666666667</v>
+        <v>0.00203333333333333</v>
       </c>
       <c r="T10" s="6" t="n">
-        <v>0.00244166666666667</v>
+        <v>0.00203333333333333</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.00244166666666667</v>
+        <v>0.00203333333333333</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007325</v>
+        <v>0.0061</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0293</v>
+        <v>0.0244</v>
       </c>
     </row>
   </sheetData>
@@ -12909,7 +12747,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0.0284</v>
+        <v>0.0276</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -12980,7 +12818,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.0284</v>
+        <v>0.0276</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13051,13 +12889,13 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.0284</v>
+        <v>0.0276</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>0.0278</v>
+        <v>0.027</v>
       </c>
       <c r="H4" s="7" t="n">
         <v>0</v>
@@ -13066,7 +12904,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0283</v>
+        <v>0.0275</v>
       </c>
       <c r="K4" s="7" t="n">
         <v>0</v>
@@ -13075,37 +12913,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0.00568333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0.01705</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.00568333333333333</v>
+        <v>0.0046</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.00568333333333333</v>
+        <v>0.0046</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.00568333333333333</v>
+        <v>0.0046</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.01705</v>
+        <v>0.0138</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.00568333333333333</v>
+        <v>0.0046</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.00568333333333333</v>
+        <v>0.0046</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.00568333333333333</v>
+        <v>0.0046</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.01705</v>
+        <v>0.0138</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0.0682</v>
+        <v>0.0552</v>
       </c>
     </row>
     <row r="5">
@@ -13420,7 +13258,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0.098</v>
+        <v>0.0901</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13491,7 +13329,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0.098</v>
+        <v>0.0901</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13562,7 +13400,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0.098</v>
+        <v>0.0901</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -13574,49 +13412,49 @@
         <v>0</v>
       </c>
       <c r="I4" s="8" t="n">
+        <v>0.0435</v>
+      </c>
+      <c r="J4" s="8" t="n">
+        <v>0.0435</v>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8" t="n">
         <v>0.0476</v>
       </c>
-      <c r="J4" s="8" t="n">
-        <v>0.0476</v>
-      </c>
-      <c r="K4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8" t="n">
-        <v>0.0526</v>
-      </c>
       <c r="M4" s="8" t="n">
-        <v>0.0196</v>
+        <v>0</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>0.0588</v>
+        <v>0.0469</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0.0196</v>
+        <v>0.0150166666666667</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0.0196</v>
+        <v>0.0150166666666667</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0.0196</v>
+        <v>0.0150166666666667</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0.0588</v>
+        <v>0.04505</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0.0196</v>
+        <v>0.0150166666666667</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0.0196</v>
+        <v>0.0150166666666667</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0.0196</v>
+        <v>0.0150166666666667</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0.0588</v>
+        <v>0.04505</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0.2352</v>
+        <v>0.1802</v>
       </c>
     </row>
     <row r="5">
@@ -13828,7 +13666,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0.042</v>
+        <v>0.0565</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13899,7 +13737,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0.042</v>
+        <v>0.0565</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13970,7 +13808,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0.042</v>
+        <v>0.0565</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -13994,37 +13832,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>0.0084</v>
+        <v>0.0147</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0.0252</v>
+        <v>0.029</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0.0084</v>
+        <v>0.00941666666666667</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0.0084</v>
+        <v>0.00941666666666667</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0.0084</v>
+        <v>0.00941666666666667</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.0252</v>
+        <v>0.02825</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0.0084</v>
+        <v>0.00941666666666667</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0.0084</v>
+        <v>0.00941666666666667</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0.0084</v>
+        <v>0.00941666666666667</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0.0252</v>
+        <v>0.02825</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>0.1008</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="5">
@@ -14186,9 +14024,7 @@
       <c r="L7" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="9"/>
       <c r="N7" s="9" t="n">
         <v>1</v>
       </c>
@@ -14234,7 +14070,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="9" t="n">
-        <v>0.0333</v>
+        <v>0.0334</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -14305,7 +14141,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="9" t="n">
-        <v>0.0333</v>
+        <v>0.0334</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -14376,7 +14212,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="9" t="n">
-        <v>0.0333</v>
+        <v>0.0334</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -14400,37 +14236,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="9" t="n">
-        <v>0.00665833333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="9" t="n">
-        <v>0.019975</v>
+        <v>0.0113</v>
       </c>
       <c r="O10" s="9" t="n">
-        <v>0.00665833333333333</v>
+        <v>0.00556666666666667</v>
       </c>
       <c r="P10" s="9" t="n">
-        <v>0.00665833333333333</v>
+        <v>0.00556666666666667</v>
       </c>
       <c r="Q10" s="9" t="n">
-        <v>0.00665833333333333</v>
+        <v>0.00556666666666667</v>
       </c>
       <c r="R10" s="9" t="n">
-        <v>0.019975</v>
+        <v>0.0167</v>
       </c>
       <c r="S10" s="9" t="n">
-        <v>0.00665833333333333</v>
+        <v>0.00556666666666667</v>
       </c>
       <c r="T10" s="9" t="n">
-        <v>0.00665833333333333</v>
+        <v>0.00556666666666667</v>
       </c>
       <c r="U10" s="9" t="n">
-        <v>0.00665833333333333</v>
+        <v>0.00556666666666667</v>
       </c>
       <c r="V10" s="9" t="n">
-        <v>0.019975</v>
+        <v>0.0167</v>
       </c>
       <c r="W10" s="9" t="n">
-        <v>0.0799</v>
+        <v>0.0668</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_AMC Conveyance Solutions Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Conveyance Solutions Division.xlsx
@@ -796,7 +796,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.0876</v>
+        <v>0.0877</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -867,7 +867,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.0876</v>
+        <v>0.0877</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -938,7 +938,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.0876</v>
+        <v>0.0877</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -968,31 +968,31 @@
         <v>0.0443</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.0146</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.0146</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.0146</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.0438</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.0146</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.0146</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.0146</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.0438</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0.1752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1170,9 +1170,7 @@
       <c r="N7" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="O7" s="1" t="n">
-        <v>0.428571428571429</v>
-      </c>
+      <c r="O7" s="1"/>
       <c r="P7" s="1" t="n">
         <v>0.428571428571429</v>
       </c>
@@ -1212,7 +1210,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.2781</v>
+        <v>0.3044</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1283,7 +1281,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.2781</v>
+        <v>0.3044</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1354,61 +1352,61 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.2781</v>
+        <v>0.3044</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0.0212</v>
+        <v>0.021</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>0.0584</v>
+        <v>0.058</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>0.0545</v>
+        <v>0.0542</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>0.1358</v>
+        <v>0.1349</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>0.0622</v>
+        <v>0.0619</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>0.0531</v>
+        <v>0.0527</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>0.0252</v>
+        <v>0.0251</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0.1423</v>
+        <v>0.1414</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>0.04635</v>
+        <v>0.0266</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>0.04635</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>0.04635</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0.13905</v>
+        <v>0.13045</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0.04635</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0.04635</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.04635</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.13905</v>
+        <v>0.13045</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0.5562</v>
+        <v>0.5218</v>
       </c>
     </row>
   </sheetData>
@@ -1510,7 +1508,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>0.0276</v>
+        <v>0.0277</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1581,7 +1579,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>0.0276</v>
+        <v>0.0277</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1652,7 +1650,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>0.0276</v>
+        <v>0.0277</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1682,31 +1680,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>0.0046</v>
+        <v>0</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>0.0046</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0.0046</v>
+        <v>0</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0.0138</v>
+        <v>0</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0.0046</v>
+        <v>0</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0.0046</v>
+        <v>0</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0.0046</v>
+        <v>0</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0.0138</v>
+        <v>0</v>
       </c>
       <c r="W4" s="10" t="n">
-        <v>0.0552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1722,7 +1720,9 @@
       <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -1763,7 +1763,9 @@
       <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -1830,64 +1832,48 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0.0557</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10" t="n">
-        <v>0.0096</v>
-      </c>
-      <c r="I7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10" t="n">
-        <v>0.0094</v>
-      </c>
-      <c r="K7" s="10" t="n">
-        <v>0.0093</v>
-      </c>
-      <c r="L7" s="10" t="n">
-        <v>0.0377</v>
-      </c>
-      <c r="M7" s="10" t="n">
-        <v>0.0278</v>
-      </c>
-      <c r="N7" s="10" t="n">
-        <v>0.0748</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
       <c r="O7" s="10" t="n">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="P7" s="10" t="n">
-        <v>0.0089</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="10" t="n">
-        <v>0.0369</v>
+        <v>1</v>
       </c>
       <c r="S7" s="10" t="n">
-        <v>0.0085</v>
+        <v>1</v>
       </c>
       <c r="T7" s="10" t="n">
-        <v>0.0087</v>
+        <v>1</v>
       </c>
       <c r="U7" s="10" t="n">
-        <v>0.0179</v>
+        <v>1</v>
       </c>
       <c r="V7" s="10" t="n">
-        <v>0.0348</v>
+        <v>1</v>
       </c>
       <c r="W7" s="10" t="n">
-        <v>0.1558</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1904,61 +1890,61 @@
         <v>31</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0.0557</v>
+        <v>0.0558</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="10" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="10" t="n">
-        <v>0.00864</v>
+        <v>0.0096</v>
       </c>
       <c r="I8" s="10" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="10" t="n">
-        <v>0.00846</v>
+        <v>0.0094</v>
       </c>
       <c r="K8" s="10" t="n">
-        <v>0.00837</v>
+        <v>0.0093</v>
       </c>
       <c r="L8" s="10" t="n">
-        <v>0.03393</v>
+        <v>0.0377</v>
       </c>
       <c r="M8" s="10" t="n">
-        <v>0.02502</v>
+        <v>0.0278</v>
       </c>
       <c r="N8" s="10" t="n">
-        <v>0.06732</v>
+        <v>0.0748</v>
       </c>
       <c r="O8" s="10" t="n">
-        <v>0.027</v>
+        <v>0.03</v>
       </c>
       <c r="P8" s="10" t="n">
-        <v>0.00801</v>
+        <v>0.0089</v>
       </c>
       <c r="Q8" s="10" t="n">
         <v>0</v>
       </c>
       <c r="R8" s="10" t="n">
-        <v>0.03321</v>
+        <v>0.0369</v>
       </c>
       <c r="S8" s="10" t="n">
-        <v>0.00765</v>
+        <v>0.0085</v>
       </c>
       <c r="T8" s="10" t="n">
-        <v>0.00783</v>
+        <v>0.0087</v>
       </c>
       <c r="U8" s="10" t="n">
-        <v>0.01611</v>
+        <v>0.0179</v>
       </c>
       <c r="V8" s="10" t="n">
-        <v>0.03132</v>
+        <v>0.0348</v>
       </c>
       <c r="W8" s="10" t="n">
-        <v>0.14022</v>
+        <v>0.1558</v>
       </c>
     </row>
     <row r="9">
@@ -1975,61 +1961,132 @@
         <v>31</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0.0557</v>
+        <v>0.0558</v>
       </c>
       <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="n">
+        <v>0.00864</v>
+      </c>
+      <c r="I9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="n">
+        <v>0.00846</v>
+      </c>
+      <c r="K9" s="10" t="n">
+        <v>0.00837</v>
+      </c>
+      <c r="L9" s="10" t="n">
+        <v>0.03393</v>
+      </c>
+      <c r="M9" s="10" t="n">
+        <v>0.02502</v>
+      </c>
+      <c r="N9" s="10" t="n">
+        <v>0.06732</v>
+      </c>
+      <c r="O9" s="10" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="P9" s="10" t="n">
+        <v>0.00801</v>
+      </c>
+      <c r="Q9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="10" t="n">
+        <v>0.03321</v>
+      </c>
+      <c r="S9" s="10" t="n">
+        <v>0.00765</v>
+      </c>
+      <c r="T9" s="10" t="n">
+        <v>0.00783</v>
+      </c>
+      <c r="U9" s="10" t="n">
+        <v>0.01611</v>
+      </c>
+      <c r="V9" s="10" t="n">
+        <v>0.03132</v>
+      </c>
+      <c r="W9" s="10" t="n">
+        <v>0.14022</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="10" t="n">
+        <v>0.0558</v>
+      </c>
+      <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="10" t="n">
-        <v>0.0168</v>
-      </c>
-      <c r="H9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10" t="n">
-        <v>0.0238</v>
-      </c>
-      <c r="J9" s="10" t="n">
-        <v>0.0407</v>
-      </c>
-      <c r="K9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="10" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="M9" s="10" t="n">
-        <v>0.0076</v>
-      </c>
-      <c r="N9" s="10" t="n">
-        <v>0.0156</v>
-      </c>
-      <c r="O9" s="10" t="n">
-        <v>0.00928333333333333</v>
-      </c>
-      <c r="P9" s="10" t="n">
-        <v>0.00928333333333333</v>
-      </c>
-      <c r="Q9" s="10" t="n">
-        <v>0.00928333333333333</v>
-      </c>
-      <c r="R9" s="10" t="n">
-        <v>0.02785</v>
-      </c>
-      <c r="S9" s="10" t="n">
-        <v>0.00928333333333333</v>
-      </c>
-      <c r="T9" s="10" t="n">
-        <v>0.00928333333333333</v>
-      </c>
-      <c r="U9" s="10" t="n">
-        <v>0.00928333333333333</v>
-      </c>
-      <c r="V9" s="10" t="n">
-        <v>0.02785</v>
-      </c>
-      <c r="W9" s="10" t="n">
-        <v>0.1114</v>
+      <c r="G10" s="10" t="n">
+        <v>0.0169</v>
+      </c>
+      <c r="H10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="J10" s="10" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="10" t="n">
+        <v>0.0081</v>
+      </c>
+      <c r="M10" s="10" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="N10" s="10" t="n">
+        <v>0.0157</v>
+      </c>
+      <c r="O10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10" t="n">
+        <v>0.007975</v>
+      </c>
+      <c r="Q10" s="10" t="n">
+        <v>0.007975</v>
+      </c>
+      <c r="R10" s="10" t="n">
+        <v>0.023925</v>
+      </c>
+      <c r="S10" s="10" t="n">
+        <v>0.007975</v>
+      </c>
+      <c r="T10" s="10" t="n">
+        <v>0.007975</v>
+      </c>
+      <c r="U10" s="10" t="n">
+        <v>0.007975</v>
+      </c>
+      <c r="V10" s="10" t="n">
+        <v>0.023925</v>
+      </c>
+      <c r="W10" s="10" t="n">
+        <v>0.0957</v>
       </c>
     </row>
   </sheetData>
@@ -2354,7 +2411,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>0.0465</v>
+        <v>0.0477</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2425,7 +2482,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0.0465</v>
+        <v>0.0477</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2496,7 +2553,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0.0465</v>
+        <v>0.0477</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2517,40 +2574,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="12" t="n">
-        <v>0.0233</v>
+        <v>0.0238</v>
       </c>
       <c r="M4" s="12" t="n">
-        <v>0.0238</v>
+        <v>0.0244</v>
       </c>
       <c r="N4" s="12" t="n">
-        <v>0.0468</v>
+        <v>0.048</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0.00775</v>
+        <v>0</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0.00775</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0.00775</v>
+        <v>0</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0.02325</v>
+        <v>0</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0.00775</v>
+        <v>0</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0.00775</v>
+        <v>0</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0.00775</v>
+        <v>0</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0.02325</v>
+        <v>0</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>0.093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2712,9 +2769,7 @@
       <c r="N7" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="12" t="n">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="O7" s="12"/>
       <c r="P7" s="12" t="n">
         <v>0.666666666666667</v>
       </c>
@@ -3172,7 +3227,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0.0855</v>
+        <v>0.1007</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3243,7 +3298,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0.0855</v>
+        <v>0.1007</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3314,7 +3369,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0.0855</v>
+        <v>0.1007</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3323,52 +3378,52 @@
         <v>0</v>
       </c>
       <c r="H4" s="14" t="n">
+        <v>0.0164</v>
+      </c>
+      <c r="I4" s="14" t="n">
         <v>0.0167</v>
       </c>
-      <c r="I4" s="14" t="n">
+      <c r="J4" s="14" t="n">
+        <v>0.0332</v>
+      </c>
+      <c r="K4" s="14" t="n">
+        <v>0.0345</v>
+      </c>
+      <c r="L4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="14" t="n">
         <v>0.0169</v>
       </c>
-      <c r="J4" s="14" t="n">
-        <v>0.0337</v>
-      </c>
-      <c r="K4" s="14" t="n">
-        <v>0.0351</v>
-      </c>
-      <c r="L4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="14" t="n">
-        <v>0.0172</v>
-      </c>
       <c r="N4" s="14" t="n">
-        <v>0.052</v>
+        <v>0.0511</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0.01425</v>
+        <v>0.0167</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0.01425</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0.01425</v>
+        <v>0</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0.04275</v>
+        <v>0</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0.01425</v>
+        <v>0</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0.01425</v>
+        <v>0</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0.01425</v>
+        <v>0</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0.04275</v>
+        <v>0</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0.171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3385,7 +3440,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="14" t="n">
-        <v>0.4</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -3436,7 +3491,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="14" t="n">
-        <v>0.4</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -3507,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="14" t="n">
-        <v>0.4</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -3533,31 +3588,31 @@
         <v>0.3333</v>
       </c>
       <c r="O7" s="14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P7" s="14" t="n">
-        <v>0.4</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q7" s="14" t="n">
-        <v>0.4</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="R7" s="14" t="n">
-        <v>0.4</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="S7" s="14" t="n">
-        <v>0.4</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="T7" s="14" t="n">
-        <v>0.4</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="U7" s="14" t="n">
-        <v>0.4</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="V7" s="14" t="n">
-        <v>0.4</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W7" s="14" t="n">
-        <v>0.4</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -3574,7 +3629,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.0781</v>
+        <v>0.0978</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3645,7 +3700,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.0781</v>
+        <v>0.0978</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3716,7 +3771,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="14" t="n">
-        <v>0.0781</v>
+        <v>0.0978</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -3746,31 +3801,31 @@
         <v>0.0784</v>
       </c>
       <c r="O10" s="14" t="n">
-        <v>0.0130166666666667</v>
+        <v>0.0196</v>
       </c>
       <c r="P10" s="14" t="n">
-        <v>0.0130166666666667</v>
+        <v>0.013975</v>
       </c>
       <c r="Q10" s="14" t="n">
-        <v>0.0130166666666667</v>
+        <v>0.013975</v>
       </c>
       <c r="R10" s="14" t="n">
-        <v>0.03905</v>
+        <v>0.041925</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>0.0130166666666667</v>
+        <v>0.013975</v>
       </c>
       <c r="T10" s="14" t="n">
-        <v>0.0130166666666667</v>
+        <v>0.013975</v>
       </c>
       <c r="U10" s="14" t="n">
-        <v>0.0130166666666667</v>
+        <v>0.013975</v>
       </c>
       <c r="V10" s="14" t="n">
-        <v>0.03905</v>
+        <v>0.041925</v>
       </c>
       <c r="W10" s="14" t="n">
-        <v>0.1562</v>
+        <v>0.1677</v>
       </c>
     </row>
   </sheetData>
@@ -3872,7 +3927,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.0714</v>
+        <v>0.0709</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3943,7 +3998,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.0714</v>
+        <v>0.0709</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4014,7 +4069,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.0714</v>
+        <v>0.0709</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4044,31 +4099,31 @@
         <v>0.0714</v>
       </c>
       <c r="O4" s="15" t="n">
-        <v>0.0119</v>
+        <v>0</v>
       </c>
       <c r="P4" s="15" t="n">
-        <v>0.0119</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="15" t="n">
-        <v>0.0119</v>
+        <v>0</v>
       </c>
       <c r="R4" s="15" t="n">
-        <v>0.0357</v>
+        <v>0</v>
       </c>
       <c r="S4" s="15" t="n">
-        <v>0.0119</v>
+        <v>0</v>
       </c>
       <c r="T4" s="15" t="n">
-        <v>0.0119</v>
+        <v>0</v>
       </c>
       <c r="U4" s="15" t="n">
-        <v>0.0119</v>
+        <v>0</v>
       </c>
       <c r="V4" s="15" t="n">
-        <v>0.0357</v>
+        <v>0</v>
       </c>
       <c r="W4" s="15" t="n">
-        <v>0.1428</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4170,7 +4225,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>0.1151</v>
+        <v>0.1299</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4241,7 +4296,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="16" t="n">
-        <v>0.1151</v>
+        <v>0.1299</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4312,61 +4367,61 @@
         <v>26</v>
       </c>
       <c r="E4" s="16" t="n">
-        <v>0.1151</v>
+        <v>0.1299</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="16" t="n">
-        <v>0.0123</v>
+        <v>0.0125</v>
       </c>
       <c r="H4" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="16" t="n">
-        <v>0.0641</v>
+        <v>0.0649</v>
       </c>
       <c r="J4" s="16" t="n">
-        <v>0.0747</v>
+        <v>0.0757</v>
       </c>
       <c r="K4" s="16" t="n">
-        <v>0.013</v>
+        <v>0.0132</v>
       </c>
       <c r="L4" s="16" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="M4" s="16" t="n">
+        <v>0.0135</v>
+      </c>
+      <c r="N4" s="16" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O4" s="16" t="n">
         <v>0.0132</v>
       </c>
-      <c r="M4" s="16" t="n">
-        <v>0.0133</v>
-      </c>
-      <c r="N4" s="16" t="n">
-        <v>0.0395</v>
-      </c>
-      <c r="O4" s="16" t="n">
-        <v>0.0191833333333333</v>
-      </c>
       <c r="P4" s="16" t="n">
-        <v>0.0191833333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="16" t="n">
-        <v>0.0191833333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="16" t="n">
-        <v>0.05755</v>
+        <v>0</v>
       </c>
       <c r="S4" s="16" t="n">
-        <v>0.0191833333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="16" t="n">
-        <v>0.0191833333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="16" t="n">
-        <v>0.0191833333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="16" t="n">
-        <v>0.05755</v>
+        <v>0</v>
       </c>
       <c r="W4" s="16" t="n">
-        <v>0.2302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4528,9 +4583,7 @@
       <c r="N7" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="16" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="16"/>
       <c r="P7" s="16" t="n">
         <v>1</v>
       </c>
@@ -4570,7 +4623,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>0.0946</v>
+        <v>0.093</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -4641,7 +4694,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>0.0946</v>
+        <v>0.093</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4712,7 +4765,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="16" t="n">
-        <v>0.0946</v>
+        <v>0.093</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4739,34 +4792,34 @@
         <v>0</v>
       </c>
       <c r="N10" s="16" t="n">
-        <v>0.0468</v>
+        <v>0.0465</v>
       </c>
       <c r="O10" s="16" t="n">
-        <v>0.0157666666666667</v>
+        <v>0</v>
       </c>
       <c r="P10" s="16" t="n">
-        <v>0.0157666666666667</v>
+        <v>0.0132833333333333</v>
       </c>
       <c r="Q10" s="16" t="n">
-        <v>0.0157666666666667</v>
+        <v>0.0132833333333333</v>
       </c>
       <c r="R10" s="16" t="n">
-        <v>0.0473</v>
+        <v>0.03985</v>
       </c>
       <c r="S10" s="16" t="n">
-        <v>0.0157666666666667</v>
+        <v>0.0132833333333333</v>
       </c>
       <c r="T10" s="16" t="n">
-        <v>0.0157666666666667</v>
+        <v>0.0132833333333333</v>
       </c>
       <c r="U10" s="16" t="n">
-        <v>0.0157666666666667</v>
+        <v>0.0132833333333333</v>
       </c>
       <c r="V10" s="16" t="n">
-        <v>0.0473</v>
+        <v>0.03985</v>
       </c>
       <c r="W10" s="16" t="n">
-        <v>0.1892</v>
+        <v>0.1594</v>
       </c>
     </row>
   </sheetData>
@@ -5035,9 +5088,7 @@
       <c r="N4" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="O4" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="O4" s="17"/>
       <c r="P4" s="17" t="n">
         <v>0</v>
       </c>
@@ -7553,9 +7604,7 @@
       <c r="N3" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="O3" s="28" t="n">
-        <v>0</v>
-      </c>
+      <c r="O3" s="28"/>
       <c r="P3" s="28" t="n">
         <v>0</v>
       </c>
@@ -7995,9 +8044,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="O4" s="3"/>
       <c r="P4" s="3" t="n">
         <v>0</v>
       </c>
@@ -8207,31 +8254,31 @@
         <v>0</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>0.166666666666667</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>0.166666666666667</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.428575</v>
       </c>
       <c r="S7" s="3" t="n">
-        <v>0.166666666666667</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>0.166666666666667</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>0.166666666666667</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.428575</v>
       </c>
       <c r="W7" s="3" t="n">
-        <v>2</v>
+        <v>1.7143</v>
       </c>
     </row>
   </sheetData>
@@ -9045,9 +9092,7 @@
       <c r="N3" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="O3" s="34" t="n">
-        <v>1</v>
-      </c>
+      <c r="O3" s="34"/>
       <c r="P3" s="34" t="n">
         <v>1</v>
       </c>
@@ -9667,9 +9712,7 @@
       <c r="N2" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="38" t="n">
-        <v>0</v>
-      </c>
+      <c r="O2" s="38"/>
       <c r="P2" s="38" t="n">
         <v>0</v>
       </c>
@@ -10306,9 +10349,7 @@
       <c r="N7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="4" t="n">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="O7" s="4"/>
       <c r="P7" s="4" t="n">
         <v>0.666666666666667</v>
       </c>
@@ -10348,7 +10389,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.0706</v>
+        <v>0.094</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -10419,7 +10460,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.0706</v>
+        <v>0.094</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -10490,7 +10531,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0.0706</v>
+        <v>0.094</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -10511,40 +10552,40 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>0.0357</v>
+        <v>0.0353</v>
       </c>
       <c r="M10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0.0353</v>
+        <v>0.035</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>0.0117666666666667</v>
+        <v>0.0238</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>0.0117666666666667</v>
+        <v>0.013425</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0.0117666666666667</v>
+        <v>0.013425</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.0353</v>
+        <v>0.040275</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.0117666666666667</v>
+        <v>0.013425</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>0.0117666666666667</v>
+        <v>0.013425</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>0.0117666666666667</v>
+        <v>0.013425</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>0.0353</v>
+        <v>0.040275</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>0.1412</v>
+        <v>0.1611</v>
       </c>
     </row>
   </sheetData>
@@ -10802,7 +10843,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="41" t="n">
-        <v>0</v>
+        <v>0.2439</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -10832,7 +10873,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="41" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P2" s="41" t="n">
         <v>0</v>
@@ -11158,9 +11199,7 @@
       <c r="L5" s="42"/>
       <c r="M5" s="42"/>
       <c r="N5" s="42"/>
-      <c r="O5" s="42" t="n">
-        <v>0</v>
-      </c>
+      <c r="O5" s="42"/>
       <c r="P5" s="42" t="n">
         <v>0</v>
       </c>
@@ -12053,7 +12092,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.0564</v>
+        <v>0.0565</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -12124,7 +12163,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.0564</v>
+        <v>0.0565</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -12195,7 +12234,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.0564</v>
+        <v>0.0565</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -12225,31 +12264,31 @@
         <v>0.038</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0094</v>
+        <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0094</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.0094</v>
+        <v>0</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.0282</v>
+        <v>0</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.0094</v>
+        <v>0</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.0094</v>
+        <v>0</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0094</v>
+        <v>0</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0282</v>
+        <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -12407,9 +12446,7 @@
       <c r="N7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="6"/>
       <c r="P7" s="6" t="n">
         <v>1</v>
       </c>
@@ -12449,7 +12486,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0122</v>
+        <v>0.0366</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -12520,7 +12557,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0122</v>
+        <v>0.0366</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -12591,7 +12628,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.0122</v>
+        <v>0.0366</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -12621,31 +12658,31 @@
         <v>0</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00203333333333333</v>
+        <v>0.0247</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.00203333333333333</v>
+        <v>0.005225</v>
       </c>
       <c r="Q10" s="6" t="n">
-        <v>0.00203333333333333</v>
+        <v>0.005225</v>
       </c>
       <c r="R10" s="6" t="n">
-        <v>0.0061</v>
+        <v>0.015675</v>
       </c>
       <c r="S10" s="6" t="n">
-        <v>0.00203333333333333</v>
+        <v>0.005225</v>
       </c>
       <c r="T10" s="6" t="n">
-        <v>0.00203333333333333</v>
+        <v>0.005225</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.00203333333333333</v>
+        <v>0.005225</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0061</v>
+        <v>0.015675</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0244</v>
+        <v>0.0627</v>
       </c>
     </row>
   </sheetData>
@@ -12747,7 +12784,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0.0276</v>
+        <v>0.0277</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -12818,7 +12855,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.0276</v>
+        <v>0.0277</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -12889,7 +12926,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.0276</v>
+        <v>0.0277</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -12919,31 +12956,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.0046</v>
+        <v>0</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.0046</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.0046</v>
+        <v>0</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.0138</v>
+        <v>0</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.0046</v>
+        <v>0</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.0046</v>
+        <v>0</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.0046</v>
+        <v>0</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.0138</v>
+        <v>0</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0.0552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -13258,7 +13295,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0.0901</v>
+        <v>0.0909</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13329,7 +13366,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0.0901</v>
+        <v>0.0909</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13400,7 +13437,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0.0901</v>
+        <v>0.0909</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -13430,31 +13467,31 @@
         <v>0.0469</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0.0150166666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0.0150166666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0.0150166666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0.04505</v>
+        <v>0</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0.0150166666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0.0150166666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0.0150166666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0.04505</v>
+        <v>0</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0.1802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -13666,7 +13703,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0.0565</v>
+        <v>0.0569</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13737,7 +13774,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0.0565</v>
+        <v>0.0569</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13808,7 +13845,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0.0565</v>
+        <v>0.0569</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -13838,31 +13875,31 @@
         <v>0.029</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0.00941666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0.00941666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0.00941666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.02825</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0.00941666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0.00941666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0.00941666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0.02825</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>0.113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -14028,9 +14065,7 @@
       <c r="N7" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="9"/>
       <c r="P7" s="9" t="n">
         <v>1</v>
       </c>
@@ -14070,7 +14105,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="9" t="n">
-        <v>0.0334</v>
+        <v>0.0336</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -14141,7 +14176,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="9" t="n">
-        <v>0.0334</v>
+        <v>0.0336</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -14212,7 +14247,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="9" t="n">
-        <v>0.0334</v>
+        <v>0.0336</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -14242,31 +14277,31 @@
         <v>0.0113</v>
       </c>
       <c r="O10" s="9" t="n">
-        <v>0.00556666666666667</v>
+        <v>0</v>
       </c>
       <c r="P10" s="9" t="n">
-        <v>0.00556666666666667</v>
+        <v>0.0048</v>
       </c>
       <c r="Q10" s="9" t="n">
-        <v>0.00556666666666667</v>
+        <v>0.0048</v>
       </c>
       <c r="R10" s="9" t="n">
-        <v>0.0167</v>
+        <v>0.0144</v>
       </c>
       <c r="S10" s="9" t="n">
-        <v>0.00556666666666667</v>
+        <v>0.0048</v>
       </c>
       <c r="T10" s="9" t="n">
-        <v>0.00556666666666667</v>
+        <v>0.0048</v>
       </c>
       <c r="U10" s="9" t="n">
-        <v>0.00556666666666667</v>
+        <v>0.0048</v>
       </c>
       <c r="V10" s="9" t="n">
-        <v>0.0167</v>
+        <v>0.0144</v>
       </c>
       <c r="W10" s="9" t="n">
-        <v>0.0668</v>
+        <v>0.0576</v>
       </c>
     </row>
   </sheetData>
